--- a/Raetreon/bin/Debug/Fajlok/DB/kepadatbazis.xlsx
+++ b/Raetreon/bin/Debug/Fajlok/DB/kepadatbazis.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19095" windowHeight="5385"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19095" windowHeight="5385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Harcoskepek" sheetId="1" r:id="rId1"/>
     <sheet name="Ijaszkepek" sheetId="2" r:id="rId2"/>
     <sheet name="Maguskepek" sheetId="3" r:id="rId3"/>
+    <sheet name="Ellenfelkepek" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Eleres</t>
   </si>
@@ -34,6 +35,27 @@
   </si>
   <si>
     <t>Images\Karakterek\magus1.png</t>
+  </si>
+  <si>
+    <t>Images\Ellenseg\ellenseg.png</t>
+  </si>
+  <si>
+    <t>Images\Ellenseg\ellenseg2.png</t>
+  </si>
+  <si>
+    <t>Images\Ellenseg\ellenseg3.png</t>
+  </si>
+  <si>
+    <t>Images\Ellenseg\golem1.png</t>
+  </si>
+  <si>
+    <t>Images\Ellenseg\golem2.png</t>
+  </si>
+  <si>
+    <t>Images\Ellenseg\golem3.png</t>
+  </si>
+  <si>
+    <t>Images\Ellenseg\golem4.png</t>
   </si>
 </sst>
 </file>
@@ -369,7 +391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -446,7 +468,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -472,4 +494,62 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>